--- a/biology/Botanique/Aphelandra/Aphelandra.xlsx
+++ b/biology/Botanique/Aphelandra/Aphelandra.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le genre Aphelandra, appartenant à la famille des Acanthacées, comprend environ 200 espèces.
 Ce sont des arbustes ou des sous-arbrisseaux originaires des régions subtropicales à tropicales d'Amérique.
@@ -512,9 +524,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon "The Plant List"[1]   10 octobre 2012
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon "The Plant List"   10 octobre 2012
 Aphelandra acanthifolia  Hook. , (1837)
 Aphelandra acanthus  Nees  , (1847)
 Aphelandra acrensis  Lindau  , (1914)
@@ -712,7 +726,7 @@
 Aphelandra wurdackii Wassh. , (1973)
 Aphelandra xanthantha Leonard  , (1953)
 Aphelandra zamorensis Wassh. , (1996)
-Selon NCBI  (6 Aug 2010)[2] :
+Selon NCBI  (6 Aug 2010) :
 Aphelandra aurantiaca
 Aphelandra boyacensis
 Aphelandra campanensis
@@ -766,9 +780,11 @@
           <t>Espèces aux noms synonymes, obsolètes et leurs taxons de référence</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon "The Plant List"[1]   10 octobre 2012
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon "The Plant List"   10 octobre 2012
 EN COURS</t>
         </is>
       </c>
@@ -797,9 +813,11 @@
           <t>Espèces au statut non encore résolu</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon "The Plant List"[1]   10 octobre 2012
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon "The Plant List"   10 octobre 2012
 Aphelandra albadenia Rusby
 Aphelandra almedae T.F. Daniel
 Aphelandra auriculata Lindau
